--- a/docs/專題簡報國中甲組決賽名冊.xlsx
+++ b/docs/專題簡報國中甲組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="170">
   <si>
     <t>序</t>
   </si>
@@ -51,109 +51,157 @@
     <t>大甲區大甲國中</t>
   </si>
   <si>
+    <t>李悅綺</t>
+  </si>
+  <si>
+    <t>陳玟羽</t>
+  </si>
+  <si>
+    <t>張曼莉</t>
+  </si>
+  <si>
+    <t>y63j6</t>
+  </si>
+  <si>
+    <t>dxb33h2</t>
+  </si>
+  <si>
     <t>蔡欣曄</t>
   </si>
   <si>
-    <t>陳祉穎</t>
-  </si>
-  <si>
-    <t>張曼莉</t>
-  </si>
-  <si>
-    <t>frs44nc4</t>
-  </si>
-  <si>
-    <t>my10b8</t>
-  </si>
-  <si>
-    <t>徐子晴</t>
-  </si>
-  <si>
-    <t>李晏妮</t>
-  </si>
-  <si>
-    <t>r36m3</t>
-  </si>
-  <si>
-    <t>et9v3</t>
+    <t>陳亮均</t>
+  </si>
+  <si>
+    <t>ncd21jk2</t>
+  </si>
+  <si>
+    <t>dx11v3</t>
   </si>
   <si>
     <t>大甲區順天國中</t>
   </si>
   <si>
-    <t>陳欣亭</t>
-  </si>
-  <si>
-    <t>陳薇羽</t>
-  </si>
-  <si>
-    <t>張志輝</t>
-  </si>
-  <si>
-    <t>wh90c7</t>
-  </si>
-  <si>
-    <t>r91pe2</t>
-  </si>
-  <si>
     <t>李英昊</t>
   </si>
   <si>
     <t>黃証義</t>
   </si>
   <si>
-    <t>xbj68wh2</t>
-  </si>
-  <si>
-    <t>j67c6</t>
-  </si>
-  <si>
-    <t>大里區光榮國中</t>
-  </si>
-  <si>
-    <t>林依依</t>
-  </si>
-  <si>
-    <t>余冠霖</t>
-  </si>
-  <si>
-    <t>宋沛寰</t>
-  </si>
-  <si>
-    <t>f55p5</t>
-  </si>
-  <si>
-    <t>c75an4</t>
+    <t>j91c5</t>
+  </si>
+  <si>
+    <t>et28nc2</t>
+  </si>
+  <si>
+    <t>大肚區大道國中</t>
+  </si>
+  <si>
+    <t>陳芃璇</t>
+  </si>
+  <si>
+    <t>蔣翔能</t>
+  </si>
+  <si>
+    <t>bj20kf7</t>
+  </si>
+  <si>
+    <t>cd35a6</t>
+  </si>
+  <si>
+    <t>蔡紫芸</t>
+  </si>
+  <si>
+    <t>賴泯蓁</t>
+  </si>
+  <si>
+    <t>施俊楠</t>
+  </si>
+  <si>
+    <t>rs58rs6</t>
+  </si>
+  <si>
+    <t>j24r8</t>
+  </si>
+  <si>
+    <t>大里區成功國中</t>
+  </si>
+  <si>
+    <t>詹喬安</t>
+  </si>
+  <si>
+    <t>楊蒨涵</t>
+  </si>
+  <si>
+    <t>賴姿婷</t>
+  </si>
+  <si>
+    <t>yg93wh3</t>
+  </si>
+  <si>
+    <t>d20c4</t>
+  </si>
+  <si>
+    <t>陳彥榕</t>
+  </si>
+  <si>
+    <t>江宇翔</t>
+  </si>
+  <si>
+    <t>許榮栓</t>
+  </si>
+  <si>
+    <t>bjk96v6</t>
+  </si>
+  <si>
+    <t>jk88f1</t>
   </si>
   <si>
     <t>大里區爽文國中</t>
   </si>
   <si>
-    <t>涂蕎安</t>
-  </si>
-  <si>
-    <t>羅育任</t>
+    <t>周曜安</t>
+  </si>
+  <si>
+    <t>謝傑瑞</t>
   </si>
   <si>
     <t>黃千慧</t>
   </si>
   <si>
-    <t>myg38hp6</t>
-  </si>
-  <si>
-    <t>gwh29m8</t>
-  </si>
-  <si>
-    <t>周曜安</t>
-  </si>
-  <si>
-    <t>謝傑瑞</t>
-  </si>
-  <si>
-    <t>r1t1</t>
-  </si>
-  <si>
-    <t>rsm71t1</t>
+    <t>fr93k9</t>
+  </si>
+  <si>
+    <t>nc73sm1</t>
+  </si>
+  <si>
+    <t>王宥媚</t>
+  </si>
+  <si>
+    <t>李宜臻</t>
+  </si>
+  <si>
+    <t>tv66jk6</t>
+  </si>
+  <si>
+    <t>xb57kf2</t>
+  </si>
+  <si>
+    <t>太平區長億高中</t>
+  </si>
+  <si>
+    <t>廖翌崴</t>
+  </si>
+  <si>
+    <t>黃俊凱</t>
+  </si>
+  <si>
+    <t>鄭瑞娟</t>
+  </si>
+  <si>
+    <t>whp74nc8</t>
+  </si>
+  <si>
+    <t>wh44j4</t>
   </si>
   <si>
     <t>太平區新光國中</t>
@@ -168,232 +216,211 @@
     <t>陳宗生</t>
   </si>
   <si>
-    <t>anc51nc2</t>
-  </si>
-  <si>
-    <t>tv67y5</t>
-  </si>
-  <si>
-    <t>林崇榆</t>
-  </si>
-  <si>
-    <t>廖苡安</t>
-  </si>
-  <si>
-    <t>y65w4</t>
-  </si>
-  <si>
-    <t>rs8kf6</t>
+    <t>rs6pe5</t>
+  </si>
+  <si>
+    <t>kfr76rs6</t>
   </si>
   <si>
     <t>北屯區北新國中</t>
   </si>
   <si>
-    <t>李竣新</t>
-  </si>
-  <si>
-    <t>林祐任</t>
-  </si>
-  <si>
-    <t>卓進豐</t>
-  </si>
-  <si>
-    <t>k66xb4</t>
-  </si>
-  <si>
-    <t>t47p6</t>
-  </si>
-  <si>
-    <t>呂岳霖</t>
-  </si>
-  <si>
-    <t>劉盈粢</t>
-  </si>
-  <si>
-    <t>hp18y2</t>
-  </si>
-  <si>
-    <t>smy69n4</t>
-  </si>
-  <si>
-    <t>北屯區東山高中</t>
-  </si>
-  <si>
-    <t>黃品齊</t>
-  </si>
-  <si>
-    <t>藍予辰</t>
-  </si>
-  <si>
-    <t>鍾蕙如</t>
-  </si>
-  <si>
-    <t>fr46n3</t>
-  </si>
-  <si>
-    <t>myg69yg8</t>
+    <t>吳思萱</t>
+  </si>
+  <si>
+    <t>林子恒</t>
+  </si>
+  <si>
+    <t>蕭評瑋</t>
+  </si>
+  <si>
+    <t>xb43d7</t>
+  </si>
+  <si>
+    <t>p66tv3</t>
+  </si>
+  <si>
+    <t>凃欣妤</t>
+  </si>
+  <si>
+    <t>陳宥均</t>
+  </si>
+  <si>
+    <t>et73bj7</t>
+  </si>
+  <si>
+    <t>gwh59pe2</t>
+  </si>
+  <si>
+    <t>北屯區崇德國中</t>
+  </si>
+  <si>
+    <t>陳菁菁</t>
+  </si>
+  <si>
+    <t>林秀珍</t>
+  </si>
+  <si>
+    <t>bj5t3</t>
+  </si>
+  <si>
+    <t>k16g9</t>
   </si>
   <si>
     <t>北屯區衛道高中</t>
   </si>
   <si>
-    <t>陳冠羲</t>
-  </si>
-  <si>
-    <t>林宇殷</t>
+    <t>楊晨玄</t>
+  </si>
+  <si>
+    <t>鍾瑋軒</t>
   </si>
   <si>
     <t>郭學政</t>
   </si>
   <si>
-    <t>f96a4</t>
-  </si>
-  <si>
-    <t>an64r7</t>
-  </si>
-  <si>
-    <t>北區雙十國中</t>
-  </si>
-  <si>
-    <t>林芷儀</t>
-  </si>
-  <si>
-    <t>陳晨靜</t>
-  </si>
-  <si>
-    <t>楊朝凱</t>
-  </si>
-  <si>
-    <t>bj2m4</t>
-  </si>
-  <si>
-    <t>ygw30w9</t>
-  </si>
-  <si>
-    <t>后里區后綜高中</t>
-  </si>
-  <si>
-    <t>簡昀瑄</t>
-  </si>
-  <si>
-    <t>陳云亭</t>
-  </si>
-  <si>
-    <t>梁寶堂</t>
-  </si>
-  <si>
-    <t>cdx75xb8</t>
-  </si>
-  <si>
-    <t>v59v8</t>
-  </si>
-  <si>
-    <t>西屯區安和國中</t>
-  </si>
-  <si>
-    <t>林姵妤</t>
-  </si>
-  <si>
-    <t>廖婧婷</t>
-  </si>
-  <si>
-    <t>林義雄</t>
-  </si>
-  <si>
-    <t>etv45tv3</t>
-  </si>
-  <si>
-    <t>x56gw8</t>
-  </si>
-  <si>
-    <t>西屯區漢口國中</t>
-  </si>
-  <si>
-    <t>莊壬希</t>
-  </si>
-  <si>
-    <t>徐薏晴</t>
-  </si>
-  <si>
-    <t>黃仁芷</t>
-  </si>
-  <si>
-    <t>dx95jk8</t>
-  </si>
-  <si>
-    <t>kfr37w3</t>
+    <t>tv13h4</t>
+  </si>
+  <si>
+    <t>dxb30dx9</t>
+  </si>
+  <si>
+    <t>北區五權國中</t>
+  </si>
+  <si>
+    <t>陳定緯</t>
+  </si>
+  <si>
+    <t>江苡蓁</t>
+  </si>
+  <si>
+    <t>李黛君</t>
+  </si>
+  <si>
+    <t>hp19d7</t>
+  </si>
+  <si>
+    <t>n56nc6</t>
   </si>
   <si>
     <t>西屯區福科國中</t>
   </si>
   <si>
-    <t>呂逸森</t>
-  </si>
-  <si>
     <t>蔡語宸</t>
   </si>
   <si>
     <t>何宜霖</t>
   </si>
   <si>
-    <t>w44wh8</t>
-  </si>
-  <si>
-    <t>an70fr7</t>
-  </si>
-  <si>
-    <t>謝茗亘</t>
-  </si>
-  <si>
-    <t>劉宛珆</t>
-  </si>
-  <si>
-    <t>an33h3</t>
-  </si>
-  <si>
-    <t>wh42w7</t>
+    <t>fr86nc7</t>
+  </si>
+  <si>
+    <t>dx78j5</t>
+  </si>
+  <si>
+    <t>謝佳恩</t>
+  </si>
+  <si>
+    <t>曾凱翎</t>
+  </si>
+  <si>
+    <t>f47s6</t>
+  </si>
+  <si>
+    <t>tv89sm8</t>
+  </si>
+  <si>
+    <t>西區光明國中</t>
+  </si>
+  <si>
+    <t>吳梓熙</t>
+  </si>
+  <si>
+    <t>黃瀞萱</t>
+  </si>
+  <si>
+    <t>蔡淑君</t>
+  </si>
+  <si>
+    <t>e41x2</t>
+  </si>
+  <si>
+    <t>dx10y2</t>
   </si>
   <si>
     <t>西區居仁國中</t>
   </si>
   <si>
-    <t>徐翊庭</t>
-  </si>
-  <si>
-    <t>陳筠淇</t>
+    <t>吳珮之</t>
+  </si>
+  <si>
+    <t>高淳鈴</t>
   </si>
   <si>
     <t>吳智偉</t>
   </si>
   <si>
-    <t>cd63f7</t>
-  </si>
-  <si>
-    <t>x32y8</t>
+    <t>kfr1c2</t>
+  </si>
+  <si>
+    <t>w11hp5</t>
+  </si>
+  <si>
+    <t>林原一</t>
+  </si>
+  <si>
+    <t>陳皓暐</t>
+  </si>
+  <si>
+    <t>施勳鉁</t>
+  </si>
+  <si>
+    <t>tv42gw4</t>
+  </si>
+  <si>
+    <t>cd89my2</t>
   </si>
   <si>
     <t>沙鹿區沙鹿國中</t>
   </si>
   <si>
-    <t>楊力璇</t>
-  </si>
-  <si>
-    <t>蔡宜安</t>
+    <t>王紋綺</t>
+  </si>
+  <si>
+    <t>吳翊甄</t>
   </si>
   <si>
     <t>王春昇</t>
   </si>
   <si>
-    <t>gw35my5</t>
-  </si>
-  <si>
-    <t>rs35w8</t>
+    <t>y92nc8</t>
+  </si>
+  <si>
+    <t>sm48f5</t>
+  </si>
+  <si>
+    <t>沙鹿區鹿寮國中</t>
+  </si>
+  <si>
+    <t>蔡宇浩</t>
+  </si>
+  <si>
+    <t>陳佳憲</t>
+  </si>
+  <si>
+    <t>賴昭仁</t>
+  </si>
+  <si>
+    <t>etv37y5</t>
+  </si>
+  <si>
+    <t>an4x7</t>
   </si>
   <si>
     <t>南屯區大業國中</t>
   </si>
   <si>
-    <t>陳可安</t>
+    <t>巫宣諭</t>
   </si>
   <si>
     <t>張芳睿</t>
@@ -402,10 +429,10 @@
     <t>陳嘉麟</t>
   </si>
   <si>
-    <t>gwh22et5</t>
-  </si>
-  <si>
-    <t>sm88k8</t>
+    <t>m89et1</t>
+  </si>
+  <si>
+    <t>c24j8</t>
   </si>
   <si>
     <t>蔡家恩</t>
@@ -414,124 +441,94 @@
     <t>廖育陞</t>
   </si>
   <si>
-    <t>陳易紘</t>
-  </si>
-  <si>
-    <t>kf74t7</t>
-  </si>
-  <si>
-    <t>wh40s5</t>
+    <t>江俞學</t>
+  </si>
+  <si>
+    <t>cdx96kf6</t>
+  </si>
+  <si>
+    <t>j93yg2</t>
+  </si>
+  <si>
+    <t>南屯區黎明國中</t>
+  </si>
+  <si>
+    <t>吳依喬</t>
+  </si>
+  <si>
+    <t>王淑芬</t>
+  </si>
+  <si>
+    <t>sm57cd8</t>
+  </si>
+  <si>
+    <t>rs95x2</t>
   </si>
   <si>
     <t>南區崇倫國中</t>
   </si>
   <si>
-    <t>陳婷煊</t>
-  </si>
-  <si>
-    <t>楊詠媜</t>
-  </si>
-  <si>
-    <t>林麗萍</t>
-  </si>
-  <si>
-    <t>v40dx2</t>
-  </si>
-  <si>
-    <t>cd28s6</t>
-  </si>
-  <si>
-    <t>張毓辰</t>
-  </si>
-  <si>
-    <t>廖妘珊</t>
-  </si>
-  <si>
-    <t>tv8hp4</t>
-  </si>
-  <si>
-    <t>r95f6</t>
+    <t>王萱雅</t>
+  </si>
+  <si>
+    <t>廖亭詠</t>
+  </si>
+  <si>
+    <t>曾曉芬</t>
+  </si>
+  <si>
+    <t>y71t9</t>
+  </si>
+  <si>
+    <t>my23m5</t>
   </si>
   <si>
     <t>烏日區光德國中</t>
   </si>
   <si>
-    <t>吳筱葆</t>
-  </si>
-  <si>
     <t>吳品瑩</t>
   </si>
   <si>
+    <t>林兆胤</t>
+  </si>
+  <si>
     <t>陳立唐</t>
   </si>
   <si>
-    <t>nc88r8</t>
-  </si>
-  <si>
-    <t>pe27b8</t>
+    <t>xb15yg9</t>
+  </si>
+  <si>
+    <t>sm14cd6</t>
   </si>
   <si>
     <t>烏日區明道中學</t>
   </si>
   <si>
-    <t>王筠喬</t>
+    <t>簡潔</t>
+  </si>
+  <si>
+    <t>廖虹雯</t>
+  </si>
+  <si>
+    <t>戴暐真</t>
+  </si>
+  <si>
+    <t>gw36yg8</t>
+  </si>
+  <si>
+    <t>hpe15h8</t>
+  </si>
+  <si>
+    <t>法雨雯</t>
   </si>
   <si>
     <t>張子濬</t>
   </si>
   <si>
-    <t>謝翠如</t>
-  </si>
-  <si>
-    <t>kf11jk7</t>
-  </si>
-  <si>
-    <t>j5e4</t>
-  </si>
-  <si>
-    <t>林芝儀</t>
-  </si>
-  <si>
-    <t>林于琪</t>
-  </si>
-  <si>
-    <t>gw41x6</t>
-  </si>
-  <si>
-    <t>pe1yg8</t>
-  </si>
-  <si>
-    <t>潭子區潭秀國中</t>
-  </si>
-  <si>
-    <t>劉筱淇</t>
-  </si>
-  <si>
-    <t>許錫誠</t>
-  </si>
-  <si>
-    <t>xb38kf5</t>
-  </si>
-  <si>
-    <t>hpe82tv7</t>
-  </si>
-  <si>
-    <t>豐原區豐南國中</t>
-  </si>
-  <si>
-    <t>江秉真</t>
-  </si>
-  <si>
-    <t>蘇牧辰</t>
-  </si>
-  <si>
-    <t>王佩琪</t>
-  </si>
-  <si>
-    <t>xb21d2</t>
-  </si>
-  <si>
-    <t>a53n2</t>
+    <t>dx80fr5</t>
+  </si>
+  <si>
+    <t>k64et4</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1533,7 @@
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1630,17 +1627,15 @@
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1651,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>25</v>
@@ -1675,22 +1670,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1701,22 +1696,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1727,16 +1722,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>43</v>
@@ -1831,22 +1826,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1857,22 +1852,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1883,16 +1878,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>75</v>
@@ -1914,17 +1909,15 @@
       <c r="D15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1935,22 +1928,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1961,22 +1954,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1987,22 +1980,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2013,22 +2006,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2039,22 +2032,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2065,22 +2058,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2091,22 +2084,22 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2117,22 +2110,22 @@
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2143,22 +2136,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2169,22 +2162,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2195,22 +2188,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2221,22 +2214,20 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2247,22 +2238,22 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2273,16 +2264,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>158</v>
@@ -2304,15 +2295,17 @@
       <c r="D30" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F30" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2323,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>166</v>
@@ -2332,13 +2325,13 @@
         <v>167</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
